--- a/biology/Zoologie/Atractaspis/Atractaspis.xlsx
+++ b/biology/Zoologie/Atractaspis/Atractaspis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Atractaspis est un genre de serpents de la famille des Lamprophiidae[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Atractaspis est un genre de serpents de la famille des Lamprophiidae. 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les 22 espèces de ce genre se rencontrent en Afrique et dans la péninsule Arabique[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les 22 espèces de ce genre se rencontrent en Afrique et dans la péninsule Arabique.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des serpents venimeux.
 </t>
@@ -573,9 +589,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (28 mars 2020)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (28 mars 2020) :
 Atractaspis andersonii Boulenger, 1905
 Atractaspis aterrima Günther, 1863
 Atractaspis battersbyi (De Witte, 1959)
@@ -625,7 +643,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Smith, 1849 : Illustrations of the zoology of South Africa, consisting chiefly of figures and descriptions of the objects of natural history collected during an expedition into the interior of South Africa, in the years 1834, 1835, and 1836; fitted out by "The Cape of Good Hope Association for Exploring Central Africa" : together with a summary of African zoology, and an inquiry into the geographical ranges of species in that quarter of the globe, vol. 3, Appendix.</t>
         </is>
